--- a/main/wickets.xlsx
+++ b/main/wickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagde\Desktop\Jujhaar\programming\my programmes\python\tkinter\cricket-scores\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D5F90-A508-4F9A-8068-AA675D463271}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0FBB78-F658-405F-9570-1063496DA78B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>NAME</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>CSK</t>
+  </si>
+  <si>
+    <t>WARNE</t>
+  </si>
+  <si>
+    <t>BOULT</t>
+  </si>
+  <si>
+    <t>SHAKIB</t>
+  </si>
+  <si>
+    <t>STARC</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
   </si>
 </sst>
 </file>
@@ -386,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,17 +441,17 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <f>B2/D2</f>
-        <v>1.6666666666666667</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -438,17 +459,17 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">B3/D3</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" ref="E3:E10" si="0">B3/D3</f>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -456,17 +477,17 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,17 +495,107 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
